--- a/results/FrequencyTables/27404981_gRNA-TAR2.xlsx
+++ b/results/FrequencyTables/27404981_gRNA-TAR2.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="D2">
-        <v>0.99</v>
+        <v>0.975</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00681818181818182</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.981060606060606</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00378787878787879</v>
       </c>
       <c r="I2">
-        <v>0.03</v>
+        <v>0.0409090909090909</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00454545454545455</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.999242424242424</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00454545454545455</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00227272727272727</v>
       </c>
       <c r="O2">
-        <v>0.01</v>
+        <v>0.0053030303030303</v>
       </c>
       <c r="P2">
-        <v>0.01</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="Q2">
-        <v>0.02</v>
+        <v>0.00681818181818182</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0106060606060606</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.990151515151515</v>
       </c>
       <c r="T2">
-        <v>0.01</v>
+        <v>0.0053030303030303</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="X2">
-        <v>0.01</v>
+        <v>0.0053030303030303</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.98</v>
+        <v>0.977272727272727</v>
       </c>
       <c r="C3">
-        <v>0.99</v>
+        <v>0.977272727272727</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>0.00984848484848485</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0053030303030303</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00151515151515152</v>
       </c>
       <c r="H3">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0515151515151515</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0204545454545455</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.986363636363636</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.996212121212121</v>
       </c>
       <c r="O3">
-        <v>0.04</v>
+        <v>0.0515151515151515</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00378787878787879</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00151515151515152</v>
       </c>
       <c r="U3">
-        <v>0.97</v>
+        <v>0.968181818181818</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00227272727272727</v>
       </c>
       <c r="W3">
-        <v>0.99</v>
+        <v>0.975757575757576</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00151515151515152</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -616,34 +616,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0136363636363636</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00151515151515152</v>
       </c>
       <c r="E4">
-        <v>0.99</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0136363636363636</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
+        <v>0.00378787878787879</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0128787878787879</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>0.00454545454545455</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.99469696969697</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.973484848484849</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -652,34 +652,34 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00151515151515152</v>
       </c>
       <c r="P4">
-        <v>0.99</v>
+        <v>0.985606060606061</v>
       </c>
       <c r="Q4">
-        <v>0.98</v>
+        <v>0.987121212121212</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0053030303030303</v>
       </c>
       <c r="T4">
-        <v>0.99</v>
+        <v>0.993181818181818</v>
       </c>
       <c r="U4">
-        <v>0.01</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="V4">
-        <v>0.01</v>
+        <v>0.00681818181818182</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00151515151515152</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.0128787878787879</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,28 +687,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02</v>
+        <v>0.0196969696969697</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0136363636363636</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0151515151515152</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.99</v>
+        <v>0.993939393939394</v>
       </c>
       <c r="H5">
-        <v>0.33</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="I5">
-        <v>0.96</v>
+        <v>0.903030303030303</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -720,40 +720,40 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0128787878787879</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00151515151515152</v>
       </c>
       <c r="O5">
-        <v>0.95</v>
+        <v>0.941666666666667</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00151515151515152</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00151515151515152</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0136363636363636</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00378787878787879</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.02</v>
+        <v>0.021969696969697</v>
       </c>
       <c r="V5">
-        <v>0.99</v>
+        <v>0.990151515151515</v>
       </c>
       <c r="W5">
-        <v>0.01</v>
+        <v>0.00454545454545455</v>
       </c>
       <c r="X5">
-        <v>0.99</v>
+        <v>0.979545454545454</v>
       </c>
     </row>
   </sheetData>
